--- a/volcanic_test/selectivity/carboamination/reaction_data.xlsx
+++ b/volcanic_test/selectivity/carboamination/reaction_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\pregabalin\RF\spectre\volcanic_test\selectivity\carboamination\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C933EFF-AF1C-4132-B979-8E9F387BE768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7ED570F-6433-4CD5-AA9C-585FC3ACB6D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>TS(1,A2)</t>
   </si>
   <si>
     <t>TS(A2,A3)</t>
@@ -582,1903 +579,1774 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" t="s">
+    </row>
+    <row r="2" spans="1:13" ht="16.8">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="16.8">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="B2" s="4">
         <v>0</v>
       </c>
       <c r="C2" s="4">
-        <v>31.9</v>
+        <v>6.52</v>
       </c>
       <c r="D2" s="4">
-        <v>6.52</v>
+        <v>4.7</v>
       </c>
       <c r="E2" s="4">
-        <v>4.7</v>
+        <v>-0.35</v>
       </c>
       <c r="F2" s="4">
-        <v>-0.35</v>
+        <v>12.49</v>
       </c>
       <c r="G2" s="4">
-        <v>12.49</v>
+        <v>-9.7799999999999994</v>
       </c>
       <c r="H2" s="4">
-        <v>-9.7799999999999994</v>
+        <v>5.18</v>
       </c>
       <c r="I2" s="4">
-        <v>5.18</v>
+        <v>3.43</v>
       </c>
       <c r="J2" s="4">
-        <v>3.43</v>
+        <v>17.27</v>
       </c>
       <c r="K2" s="4">
-        <v>17.27</v>
+        <v>18.510000000000002</v>
       </c>
       <c r="L2" s="4">
         <v>-46.19</v>
       </c>
       <c r="M2" s="4">
-        <v>18.510000000000002</v>
-      </c>
-      <c r="N2" s="4">
-        <v>-68.489999999999995</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="16.8">
+        <v>-68.489999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="16.8">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
       </c>
       <c r="C3" s="4">
-        <v>31.59</v>
+        <v>13.63</v>
       </c>
       <c r="D3" s="4">
-        <v>13.63</v>
+        <v>12.17</v>
       </c>
       <c r="E3" s="4">
-        <v>12.17</v>
+        <v>7.05</v>
       </c>
       <c r="F3" s="4">
-        <v>7.05</v>
+        <v>29.32</v>
       </c>
       <c r="G3" s="4">
-        <v>29.32</v>
+        <v>-0.69</v>
       </c>
       <c r="H3" s="4">
-        <v>-0.69</v>
+        <v>16.440000000000001</v>
       </c>
       <c r="I3" s="4">
-        <v>16.440000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="J3" s="4">
-        <v>9.3000000000000007</v>
+        <v>13.83</v>
       </c>
       <c r="K3" s="4">
-        <v>13.83</v>
+        <v>25.43</v>
       </c>
       <c r="L3" s="4">
         <v>-52.67</v>
       </c>
       <c r="M3" s="4">
-        <v>25.43</v>
-      </c>
-      <c r="N3" s="4">
-        <v>-68.489999999999995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="16.8">
+        <v>-68.489999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="16.8">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
       </c>
       <c r="C4" s="4">
-        <v>29.92</v>
+        <v>15.23</v>
       </c>
       <c r="D4" s="4">
-        <v>15.23</v>
+        <v>12.99</v>
       </c>
       <c r="E4" s="4">
-        <v>12.99</v>
+        <v>6.21</v>
       </c>
       <c r="F4" s="4">
-        <v>6.21</v>
+        <v>34.14</v>
       </c>
       <c r="G4" s="4">
-        <v>34.14</v>
+        <v>4.08</v>
       </c>
       <c r="H4" s="4">
-        <v>4.08</v>
+        <v>18.63</v>
       </c>
       <c r="I4" s="4">
-        <v>18.63</v>
+        <v>14.52</v>
       </c>
       <c r="J4" s="4">
-        <v>14.52</v>
+        <v>16.66</v>
       </c>
       <c r="K4" s="4">
-        <v>16.66</v>
+        <v>29</v>
       </c>
       <c r="L4" s="4">
         <v>-48.57</v>
       </c>
       <c r="M4" s="4">
-        <v>29</v>
-      </c>
-      <c r="N4" s="4">
-        <v>-68.489999999999995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="16.8">
+        <v>-68.489999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="16.8">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
       </c>
       <c r="C5" s="4">
-        <v>31.87</v>
+        <v>14.63</v>
       </c>
       <c r="D5" s="4">
-        <v>14.63</v>
+        <v>13.5</v>
       </c>
       <c r="E5" s="4">
-        <v>13.5</v>
+        <v>6.52</v>
       </c>
       <c r="F5" s="4">
-        <v>6.52</v>
+        <v>33.86</v>
       </c>
       <c r="G5" s="4">
-        <v>33.86</v>
+        <v>5.53</v>
       </c>
       <c r="H5" s="4">
-        <v>5.53</v>
+        <v>19.16</v>
       </c>
       <c r="I5" s="4">
-        <v>19.16</v>
+        <v>11.13</v>
       </c>
       <c r="J5" s="4">
-        <v>11.13</v>
+        <v>16.5</v>
       </c>
       <c r="K5" s="4">
-        <v>16.5</v>
+        <v>21.14</v>
       </c>
       <c r="L5" s="4">
         <v>-49.48</v>
       </c>
       <c r="M5" s="4">
-        <v>21.14</v>
-      </c>
-      <c r="N5" s="4">
-        <v>-68.489999999999995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="16.8">
+        <v>-68.489999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="16.8">
       <c r="A6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="4">
         <v>0</v>
       </c>
       <c r="C6" s="4">
-        <v>30.97</v>
+        <v>12.89</v>
       </c>
       <c r="D6" s="4">
-        <v>12.89</v>
+        <v>11.85</v>
       </c>
       <c r="E6" s="4">
-        <v>11.85</v>
+        <v>7.67</v>
       </c>
       <c r="F6" s="4">
-        <v>7.67</v>
+        <v>33.06</v>
       </c>
       <c r="G6" s="4">
-        <v>33.06</v>
+        <v>4.93</v>
       </c>
       <c r="H6" s="4">
-        <v>4.93</v>
+        <v>17.46</v>
       </c>
       <c r="I6" s="4">
-        <v>17.46</v>
+        <v>11.8</v>
       </c>
       <c r="J6" s="4">
-        <v>11.8</v>
+        <v>17.89</v>
       </c>
       <c r="K6" s="4">
-        <v>17.89</v>
+        <v>23.3</v>
       </c>
       <c r="L6" s="4">
         <v>-42.92</v>
       </c>
       <c r="M6" s="4">
-        <v>23.3</v>
-      </c>
-      <c r="N6" s="4">
-        <v>-68.489999999999995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="16.8">
+        <v>-68.489999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="16.8">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4">
         <v>0</v>
       </c>
       <c r="C7" s="4">
-        <v>32.549999999999997</v>
+        <v>13.19</v>
       </c>
       <c r="D7" s="4">
-        <v>13.19</v>
+        <v>13.13</v>
       </c>
       <c r="E7" s="4">
-        <v>13.13</v>
+        <v>6.42</v>
       </c>
       <c r="F7" s="4">
-        <v>6.42</v>
+        <v>25.97</v>
       </c>
       <c r="G7" s="4">
-        <v>25.97</v>
+        <v>1.65</v>
       </c>
       <c r="H7" s="4">
-        <v>1.65</v>
+        <v>18.079999999999998</v>
       </c>
       <c r="I7" s="4">
-        <v>18.079999999999998</v>
+        <v>13.44</v>
       </c>
       <c r="J7" s="4">
-        <v>13.44</v>
+        <v>18.440000000000001</v>
       </c>
       <c r="K7" s="4">
-        <v>18.440000000000001</v>
+        <v>26.1</v>
       </c>
       <c r="L7" s="4">
         <v>-36.200000000000003</v>
       </c>
       <c r="M7" s="4">
-        <v>26.1</v>
-      </c>
-      <c r="N7" s="4">
-        <v>-68.489999999999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="16.8">
+        <v>-68.489999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="16.8">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="4">
         <v>0</v>
       </c>
       <c r="C8" s="4">
-        <v>33.72</v>
+        <v>7.95</v>
       </c>
       <c r="D8" s="4">
+        <v>6.94</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="F8" s="4">
+        <v>23.29</v>
+      </c>
+      <c r="G8" s="4">
+        <v>-2.2200000000000002</v>
+      </c>
+      <c r="H8" s="4">
+        <v>14.22</v>
+      </c>
+      <c r="I8" s="4">
         <v>7.95</v>
       </c>
-      <c r="E8" s="4">
-        <v>6.94</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0.94</v>
-      </c>
-      <c r="G8" s="4">
-        <v>23.29</v>
-      </c>
-      <c r="H8" s="4">
-        <v>-2.2200000000000002</v>
-      </c>
-      <c r="I8" s="4">
-        <v>14.22</v>
-      </c>
       <c r="J8" s="4">
-        <v>7.95</v>
+        <v>27.15</v>
       </c>
       <c r="K8" s="4">
-        <v>27.15</v>
+        <v>23.17</v>
       </c>
       <c r="L8" s="4">
         <v>-52.77</v>
       </c>
       <c r="M8" s="4">
-        <v>23.17</v>
-      </c>
-      <c r="N8" s="4">
-        <v>-68.489999999999995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="16.8">
+        <v>-68.489999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="16.8">
       <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>13.35</v>
+      </c>
+      <c r="D9" s="4">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E9" s="4">
+        <v>-5.56</v>
+      </c>
+      <c r="F9" s="4">
+        <v>24.34</v>
+      </c>
+      <c r="G9" s="4">
+        <v>-2.44</v>
+      </c>
+      <c r="H9" s="4">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="I9" s="4">
+        <v>5.68</v>
+      </c>
+      <c r="J9" s="4">
         <v>15</v>
       </c>
-      <c r="B9" s="4">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4">
-        <v>31.66</v>
-      </c>
-      <c r="D9" s="4">
-        <v>13.35</v>
-      </c>
-      <c r="E9" s="4">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="F9" s="4">
-        <v>-5.56</v>
-      </c>
-      <c r="G9" s="4">
-        <v>24.34</v>
-      </c>
-      <c r="H9" s="4">
-        <v>-2.44</v>
-      </c>
-      <c r="I9" s="4">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="J9" s="4">
-        <v>5.68</v>
-      </c>
       <c r="K9" s="4">
-        <v>15</v>
+        <v>9.31</v>
       </c>
       <c r="L9" s="4">
         <v>-52.05</v>
       </c>
       <c r="M9" s="4">
-        <v>9.31</v>
-      </c>
-      <c r="N9" s="4">
-        <v>-68.489999999999995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="16.8">
+        <v>-68.489999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="16.8">
       <c r="A10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="4">
         <v>0</v>
       </c>
       <c r="C10" s="4">
-        <v>31.41</v>
+        <v>13.57</v>
       </c>
       <c r="D10" s="4">
-        <v>13.57</v>
+        <v>12.67</v>
       </c>
       <c r="E10" s="4">
-        <v>12.67</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="F10" s="4">
-        <v>8.9600000000000009</v>
+        <v>23.99</v>
       </c>
       <c r="G10" s="4">
-        <v>23.99</v>
+        <v>0.92</v>
       </c>
       <c r="H10" s="4">
-        <v>0.92</v>
+        <v>16.11</v>
       </c>
       <c r="I10" s="4">
-        <v>16.11</v>
+        <v>11.13</v>
       </c>
       <c r="J10" s="4">
-        <v>11.13</v>
+        <v>15.69</v>
       </c>
       <c r="K10" s="4">
-        <v>15.69</v>
+        <v>28.44</v>
       </c>
       <c r="L10" s="4">
         <v>-45.27</v>
       </c>
       <c r="M10" s="4">
-        <v>28.44</v>
-      </c>
-      <c r="N10" s="4">
-        <v>-68.489999999999995</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="16.8">
+        <v>-68.489999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="16.8">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="4">
         <v>0</v>
       </c>
       <c r="C11" s="4">
-        <v>34.5</v>
+        <v>7.86</v>
       </c>
       <c r="D11" s="4">
-        <v>7.86</v>
+        <v>6.39</v>
       </c>
       <c r="E11" s="4">
-        <v>6.39</v>
+        <v>3.24</v>
       </c>
       <c r="F11" s="4">
-        <v>3.24</v>
+        <v>20.8</v>
       </c>
       <c r="G11" s="4">
-        <v>20.8</v>
+        <v>-2.31</v>
       </c>
       <c r="H11" s="4">
-        <v>-2.31</v>
+        <v>10.45</v>
       </c>
       <c r="I11" s="4">
-        <v>10.45</v>
+        <v>3.54</v>
       </c>
       <c r="J11" s="4">
-        <v>3.54</v>
+        <v>16.5</v>
       </c>
       <c r="K11" s="4">
-        <v>16.5</v>
+        <v>20.89</v>
       </c>
       <c r="L11" s="4">
         <v>-50.04</v>
       </c>
       <c r="M11" s="4">
-        <v>20.89</v>
-      </c>
-      <c r="N11" s="4">
-        <v>-68.489999999999995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="16.8">
+        <v>-68.489999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="16.8">
       <c r="A12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="4">
         <v>0</v>
       </c>
       <c r="C12" s="4">
-        <v>29.61</v>
+        <v>14.05</v>
       </c>
       <c r="D12" s="4">
-        <v>14.05</v>
+        <v>13.83</v>
       </c>
       <c r="E12" s="4">
-        <v>13.83</v>
+        <v>3.73</v>
       </c>
       <c r="F12" s="4">
-        <v>3.73</v>
+        <v>25.38</v>
       </c>
       <c r="G12" s="4">
-        <v>25.38</v>
+        <v>2.77</v>
       </c>
       <c r="H12" s="4">
-        <v>2.77</v>
+        <v>14.5</v>
       </c>
       <c r="I12" s="4">
-        <v>14.5</v>
+        <v>9.07</v>
       </c>
       <c r="J12" s="4">
-        <v>9.07</v>
+        <v>21.8</v>
       </c>
       <c r="K12" s="4">
-        <v>21.8</v>
+        <v>25.31</v>
       </c>
       <c r="L12" s="4">
         <v>-38.340000000000003</v>
       </c>
       <c r="M12" s="4">
-        <v>25.31</v>
-      </c>
-      <c r="N12" s="4">
-        <v>-68.489999999999995</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="16.8">
+        <v>-68.489999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="16.8">
       <c r="A13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="4">
         <v>0</v>
       </c>
       <c r="C13" s="4">
-        <v>31.74</v>
+        <v>14.73</v>
       </c>
       <c r="D13" s="4">
-        <v>14.73</v>
+        <v>13.82</v>
       </c>
       <c r="E13" s="4">
-        <v>13.82</v>
+        <v>9.84</v>
       </c>
       <c r="F13" s="4">
-        <v>9.84</v>
+        <v>29.65</v>
       </c>
       <c r="G13" s="4">
-        <v>29.65</v>
+        <v>3.78</v>
       </c>
       <c r="H13" s="4">
-        <v>3.78</v>
+        <v>16.059999999999999</v>
       </c>
       <c r="I13" s="4">
-        <v>16.059999999999999</v>
+        <v>12.88</v>
       </c>
       <c r="J13" s="4">
-        <v>12.88</v>
+        <v>19.670000000000002</v>
       </c>
       <c r="K13" s="4">
-        <v>19.670000000000002</v>
+        <v>27.22</v>
       </c>
       <c r="L13" s="4">
         <v>-42.19</v>
       </c>
       <c r="M13" s="4">
-        <v>27.22</v>
-      </c>
-      <c r="N13" s="4">
-        <v>-68.489999999999995</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="16.8">
+        <v>-68.489999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="16.8">
       <c r="A14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="4">
         <v>0</v>
       </c>
       <c r="C14" s="4">
-        <v>32.83</v>
+        <v>15.49</v>
       </c>
       <c r="D14" s="4">
-        <v>15.49</v>
+        <v>13.88</v>
       </c>
       <c r="E14" s="4">
-        <v>13.88</v>
+        <v>3.17</v>
       </c>
       <c r="F14" s="4">
-        <v>3.17</v>
+        <v>37.71</v>
       </c>
       <c r="G14" s="4">
-        <v>37.71</v>
+        <v>8.26</v>
       </c>
       <c r="H14" s="4">
-        <v>8.26</v>
+        <v>19.95</v>
       </c>
       <c r="I14" s="4">
-        <v>19.95</v>
+        <v>12.76</v>
       </c>
       <c r="J14" s="4">
-        <v>12.76</v>
+        <v>29.98</v>
       </c>
       <c r="K14" s="4">
-        <v>29.98</v>
+        <v>23.44</v>
       </c>
       <c r="L14" s="4">
         <v>-44.97</v>
       </c>
       <c r="M14" s="4">
-        <v>23.44</v>
-      </c>
-      <c r="N14" s="4">
-        <v>-68.489999999999995</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="16.8">
+        <v>-68.489999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="16.8">
       <c r="A15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="4">
         <v>0</v>
       </c>
       <c r="C15" s="4">
-        <v>31.1</v>
+        <v>12.98</v>
       </c>
       <c r="D15" s="4">
-        <v>12.98</v>
+        <v>12.22</v>
       </c>
       <c r="E15" s="4">
-        <v>12.22</v>
+        <v>9.41</v>
       </c>
       <c r="F15" s="4">
-        <v>9.41</v>
+        <v>24.99</v>
       </c>
       <c r="G15" s="4">
-        <v>24.99</v>
+        <v>1.07</v>
       </c>
       <c r="H15" s="4">
-        <v>1.07</v>
+        <v>15.92</v>
       </c>
       <c r="I15" s="4">
-        <v>15.92</v>
+        <v>11</v>
       </c>
       <c r="J15" s="4">
-        <v>11</v>
+        <v>20.07</v>
       </c>
       <c r="K15" s="4">
-        <v>20.07</v>
+        <v>29.02</v>
       </c>
       <c r="L15" s="4">
         <v>-49.21</v>
       </c>
       <c r="M15" s="4">
-        <v>29.02</v>
-      </c>
-      <c r="N15" s="4">
-        <v>-68.489999999999995</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="16.8">
+        <v>-68.489999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="16.8">
       <c r="A16" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="4">
         <v>0</v>
       </c>
       <c r="C16" s="4">
-        <v>28.59</v>
+        <v>0.59</v>
       </c>
       <c r="D16" s="4">
-        <v>0.59</v>
+        <v>-0.83</v>
       </c>
       <c r="E16" s="4">
-        <v>-0.83</v>
+        <v>-9.19</v>
       </c>
       <c r="F16" s="4">
-        <v>-9.19</v>
+        <v>4.88</v>
       </c>
       <c r="G16" s="4">
-        <v>4.88</v>
+        <v>-16.649999999999999</v>
       </c>
       <c r="H16" s="4">
-        <v>-16.649999999999999</v>
+        <v>-1.69</v>
       </c>
       <c r="I16" s="4">
-        <v>-1.69</v>
+        <v>-5.55</v>
       </c>
       <c r="J16" s="4">
-        <v>-5.55</v>
+        <v>11.69</v>
       </c>
       <c r="K16" s="4">
-        <v>11.69</v>
+        <v>14.11</v>
       </c>
       <c r="L16" s="4">
         <v>-55.26</v>
       </c>
       <c r="M16" s="4">
-        <v>14.11</v>
-      </c>
-      <c r="N16" s="4">
-        <v>-68.489999999999995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="16.8">
+        <v>-68.489999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="16.8">
       <c r="A17" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="4">
         <v>0</v>
       </c>
       <c r="C17" s="4">
-        <v>29.51</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="D17" s="4">
-        <v>8.3800000000000008</v>
+        <v>6.98</v>
       </c>
       <c r="E17" s="4">
-        <v>6.98</v>
+        <v>0.41</v>
       </c>
       <c r="F17" s="4">
-        <v>0.41</v>
+        <v>23.26</v>
       </c>
       <c r="G17" s="4">
-        <v>23.26</v>
+        <v>-3.63</v>
       </c>
       <c r="H17" s="4">
-        <v>-3.63</v>
+        <v>13.16</v>
       </c>
       <c r="I17" s="4">
-        <v>13.16</v>
+        <v>3.2</v>
       </c>
       <c r="J17" s="4">
-        <v>3.2</v>
+        <v>12.93</v>
       </c>
       <c r="K17" s="4">
-        <v>12.93</v>
+        <v>24.78</v>
       </c>
       <c r="L17" s="4">
         <v>-52.82</v>
       </c>
       <c r="M17" s="4">
-        <v>24.78</v>
-      </c>
-      <c r="N17" s="4">
-        <v>-68.489999999999995</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="16.8">
+        <v>-68.489999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="16.8">
       <c r="A18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="4">
         <v>0</v>
       </c>
       <c r="C18" s="4">
-        <v>26.98</v>
+        <v>8.3699999999999992</v>
       </c>
       <c r="D18" s="4">
-        <v>8.3699999999999992</v>
+        <v>7.57</v>
       </c>
       <c r="E18" s="4">
-        <v>7.57</v>
+        <v>-4.9400000000000004</v>
       </c>
       <c r="F18" s="4">
-        <v>-4.9400000000000004</v>
+        <v>22.92</v>
       </c>
       <c r="G18" s="4">
-        <v>22.92</v>
+        <v>-3.2</v>
       </c>
       <c r="H18" s="4">
-        <v>-3.2</v>
+        <v>10.81</v>
       </c>
       <c r="I18" s="4">
-        <v>10.81</v>
+        <v>2.83</v>
       </c>
       <c r="J18" s="4">
-        <v>2.83</v>
+        <v>11.36</v>
       </c>
       <c r="K18" s="4">
-        <v>11.36</v>
+        <v>23.31</v>
       </c>
       <c r="L18" s="4">
         <v>-45.88</v>
       </c>
       <c r="M18" s="4">
-        <v>23.31</v>
-      </c>
-      <c r="N18" s="4">
-        <v>-68.489999999999995</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="16.8">
+        <v>-68.489999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="16.8">
       <c r="A19" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="4">
         <v>0</v>
       </c>
       <c r="C19" s="4">
-        <v>30.59</v>
+        <v>10.46</v>
       </c>
       <c r="D19" s="4">
-        <v>10.46</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E19" s="4">
-        <v>9.1999999999999993</v>
+        <v>-1.06</v>
       </c>
       <c r="F19" s="4">
-        <v>-1.06</v>
+        <v>22.23</v>
       </c>
       <c r="G19" s="4">
-        <v>22.23</v>
+        <v>-2.64</v>
       </c>
       <c r="H19" s="4">
-        <v>-2.64</v>
+        <v>11.92</v>
       </c>
       <c r="I19" s="4">
-        <v>11.92</v>
+        <v>5.74</v>
       </c>
       <c r="J19" s="4">
-        <v>5.74</v>
+        <v>9.91</v>
       </c>
       <c r="K19" s="4">
-        <v>9.91</v>
+        <v>13.86</v>
       </c>
       <c r="L19" s="4">
         <v>-52.17</v>
       </c>
       <c r="M19" s="4">
-        <v>13.86</v>
-      </c>
-      <c r="N19" s="4">
-        <v>-68.489999999999995</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="16.8">
+        <v>-68.489999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="16.8">
       <c r="A20" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="4">
         <v>0</v>
       </c>
       <c r="C20" s="4">
-        <v>28.61</v>
+        <v>7.23</v>
       </c>
       <c r="D20" s="4">
-        <v>7.23</v>
+        <v>6.6</v>
       </c>
       <c r="E20" s="4">
-        <v>6.6</v>
+        <v>-1.18</v>
       </c>
       <c r="F20" s="4">
-        <v>-1.18</v>
+        <v>21.14</v>
       </c>
       <c r="G20" s="4">
-        <v>21.14</v>
+        <v>-5.45</v>
       </c>
       <c r="H20" s="4">
-        <v>-5.45</v>
+        <v>7.59</v>
       </c>
       <c r="I20" s="4">
-        <v>7.59</v>
+        <v>3.91</v>
       </c>
       <c r="J20" s="4">
-        <v>3.91</v>
+        <v>17.739999999999998</v>
       </c>
       <c r="K20" s="4">
-        <v>17.739999999999998</v>
+        <v>12.55</v>
       </c>
       <c r="L20" s="4">
         <v>-49.27</v>
       </c>
       <c r="M20" s="4">
-        <v>12.55</v>
-      </c>
-      <c r="N20" s="4">
-        <v>-68.489999999999995</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="16.8">
+        <v>-68.489999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="16.8">
       <c r="A21" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="4">
         <v>0</v>
       </c>
       <c r="C21" s="4">
-        <v>30.87</v>
+        <v>7.45</v>
       </c>
       <c r="D21" s="4">
-        <v>7.45</v>
+        <v>5.42</v>
       </c>
       <c r="E21" s="4">
-        <v>5.42</v>
+        <v>-4.7699999999999996</v>
       </c>
       <c r="F21" s="4">
-        <v>-4.7699999999999996</v>
+        <v>11.38</v>
       </c>
       <c r="G21" s="4">
-        <v>11.38</v>
+        <v>-5.3</v>
       </c>
       <c r="H21" s="4">
-        <v>-5.3</v>
+        <v>9.94</v>
       </c>
       <c r="I21" s="4">
-        <v>9.94</v>
+        <v>0.86</v>
       </c>
       <c r="J21" s="4">
-        <v>0.86</v>
+        <v>11.24</v>
       </c>
       <c r="K21" s="4">
-        <v>11.24</v>
+        <v>19.93</v>
       </c>
       <c r="L21" s="4">
         <v>-47.83</v>
       </c>
       <c r="M21" s="4">
-        <v>19.93</v>
-      </c>
-      <c r="N21" s="4">
-        <v>-68.489999999999995</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="16.8">
+        <v>-68.489999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="16.8">
       <c r="A22" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="4">
         <v>0</v>
       </c>
       <c r="C22" s="4">
-        <v>28.57</v>
+        <v>3.23</v>
       </c>
       <c r="D22" s="4">
-        <v>3.23</v>
+        <v>1.22</v>
       </c>
       <c r="E22" s="4">
-        <v>1.22</v>
+        <v>-7.65</v>
       </c>
       <c r="F22" s="4">
-        <v>-7.65</v>
+        <v>12.22</v>
       </c>
       <c r="G22" s="4">
-        <v>12.22</v>
+        <v>-12.91</v>
       </c>
       <c r="H22" s="4">
-        <v>-12.91</v>
+        <v>4.07</v>
       </c>
       <c r="I22" s="4">
-        <v>4.07</v>
+        <v>-2.75</v>
       </c>
       <c r="J22" s="4">
-        <v>-2.75</v>
+        <v>21.52</v>
       </c>
       <c r="K22" s="4">
-        <v>21.52</v>
+        <v>17.78</v>
       </c>
       <c r="L22" s="4">
         <v>-58.14</v>
       </c>
       <c r="M22" s="4">
-        <v>17.78</v>
-      </c>
-      <c r="N22" s="4">
-        <v>-68.489999999999995</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="16.8">
+        <v>-68.489999999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="16.8">
       <c r="A23" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" s="4">
         <v>0</v>
       </c>
       <c r="C23" s="4">
-        <v>29.57</v>
+        <v>10.76</v>
       </c>
       <c r="D23" s="4">
-        <v>10.76</v>
+        <v>12.19</v>
       </c>
       <c r="E23" s="4">
-        <v>12.19</v>
+        <v>-11.14</v>
       </c>
       <c r="F23" s="4">
-        <v>-11.14</v>
+        <v>10.28</v>
       </c>
       <c r="G23" s="4">
-        <v>10.28</v>
+        <v>-9.68</v>
       </c>
       <c r="H23" s="4">
-        <v>-9.68</v>
+        <v>1.26</v>
       </c>
       <c r="I23" s="4">
-        <v>1.26</v>
+        <v>-3.18</v>
       </c>
       <c r="J23" s="4">
-        <v>-3.18</v>
+        <v>8.68</v>
       </c>
       <c r="K23" s="4">
-        <v>8.68</v>
+        <v>7.91</v>
       </c>
       <c r="L23" s="4">
         <v>-57.94</v>
       </c>
       <c r="M23" s="4">
-        <v>7.91</v>
-      </c>
-      <c r="N23" s="4">
-        <v>-68.489999999999995</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="16.8">
+        <v>-68.489999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="16.8">
       <c r="A24" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" s="4">
         <v>0</v>
       </c>
       <c r="C24" s="4">
-        <v>30.74</v>
+        <v>8.91</v>
       </c>
       <c r="D24" s="4">
-        <v>8.91</v>
+        <v>7.62</v>
       </c>
       <c r="E24" s="4">
-        <v>7.62</v>
+        <v>0.67</v>
       </c>
       <c r="F24" s="4">
-        <v>0.67</v>
+        <v>17.079999999999998</v>
       </c>
       <c r="G24" s="4">
-        <v>17.079999999999998</v>
+        <v>-2.2200000000000002</v>
       </c>
       <c r="H24" s="4">
-        <v>-2.2200000000000002</v>
+        <v>11.11</v>
       </c>
       <c r="I24" s="4">
-        <v>11.11</v>
+        <v>3.47</v>
       </c>
       <c r="J24" s="4">
-        <v>3.47</v>
+        <v>16.5</v>
       </c>
       <c r="K24" s="4">
-        <v>16.5</v>
+        <v>25.1</v>
       </c>
       <c r="L24" s="4">
         <v>-52.56</v>
       </c>
       <c r="M24" s="4">
-        <v>25.1</v>
-      </c>
-      <c r="N24" s="4">
-        <v>-68.489999999999995</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="16.8">
+        <v>-68.489999999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="16.8">
       <c r="A25" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="4">
         <v>0</v>
       </c>
       <c r="C25" s="4">
-        <v>32.19</v>
+        <v>2.86</v>
       </c>
       <c r="D25" s="4">
-        <v>2.86</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E25" s="4">
-        <v>1.1000000000000001</v>
+        <v>-6.8</v>
       </c>
       <c r="F25" s="4">
+        <v>11.16</v>
+      </c>
+      <c r="G25" s="4">
+        <v>-11</v>
+      </c>
+      <c r="H25" s="4">
+        <v>3.99</v>
+      </c>
+      <c r="I25" s="4">
         <v>-6.8</v>
       </c>
-      <c r="G25" s="4">
-        <v>11.16</v>
-      </c>
-      <c r="H25" s="4">
-        <v>-11</v>
-      </c>
-      <c r="I25" s="4">
-        <v>3.99</v>
-      </c>
       <c r="J25" s="4">
-        <v>-6.8</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="K25" s="4">
-        <v>9.5500000000000007</v>
+        <v>14.64</v>
       </c>
       <c r="L25" s="4">
         <v>-57.09</v>
       </c>
       <c r="M25" s="4">
-        <v>14.64</v>
-      </c>
-      <c r="N25" s="4">
-        <v>-68.489999999999995</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="16.8">
+        <v>-68.489999999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="16.8">
       <c r="A26" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" s="4">
         <v>0</v>
       </c>
       <c r="C26" s="4">
-        <v>27.11</v>
+        <v>5.92</v>
       </c>
       <c r="D26" s="4">
-        <v>5.92</v>
+        <v>5.84</v>
       </c>
       <c r="E26" s="4">
-        <v>5.84</v>
+        <v>-3.79</v>
       </c>
       <c r="F26" s="4">
-        <v>-3.79</v>
+        <v>11.82</v>
       </c>
       <c r="G26" s="4">
-        <v>11.82</v>
+        <v>-7.9</v>
       </c>
       <c r="H26" s="4">
-        <v>-7.9</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="I26" s="4">
-        <v>5.1100000000000003</v>
+        <v>-2.02</v>
       </c>
       <c r="J26" s="4">
-        <v>-2.02</v>
+        <v>12.52</v>
       </c>
       <c r="K26" s="4">
-        <v>12.52</v>
+        <v>18.59</v>
       </c>
       <c r="L26" s="4">
         <v>-51.24</v>
       </c>
       <c r="M26" s="4">
-        <v>18.59</v>
-      </c>
-      <c r="N26" s="4">
-        <v>-68.489999999999995</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="16.8">
+        <v>-68.489999999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="16.8">
       <c r="A27" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" s="4">
         <v>0</v>
       </c>
       <c r="C27" s="4">
-        <v>30.05</v>
+        <v>8.77</v>
       </c>
       <c r="D27" s="4">
-        <v>8.77</v>
+        <v>7.55</v>
       </c>
       <c r="E27" s="4">
-        <v>7.55</v>
+        <v>-1.3</v>
       </c>
       <c r="F27" s="4">
-        <v>-1.3</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="G27" s="4">
-        <v>18.100000000000001</v>
+        <v>-3.73</v>
       </c>
       <c r="H27" s="4">
-        <v>-3.73</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="I27" s="4">
-        <v>8.9600000000000009</v>
+        <v>2.56</v>
       </c>
       <c r="J27" s="4">
-        <v>2.56</v>
+        <v>15.13</v>
       </c>
       <c r="K27" s="4">
-        <v>15.13</v>
+        <v>23.14</v>
       </c>
       <c r="L27" s="4">
         <v>-50.95</v>
       </c>
       <c r="M27" s="4">
-        <v>23.14</v>
-      </c>
-      <c r="N27" s="4">
-        <v>-68.489999999999995</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="16.8">
+        <v>-68.489999999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="16.8">
       <c r="A28" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="4">
         <v>0</v>
       </c>
       <c r="C28" s="4">
-        <v>27.49</v>
+        <v>7.33</v>
       </c>
       <c r="D28" s="4">
-        <v>7.33</v>
+        <v>6.28</v>
       </c>
       <c r="E28" s="4">
-        <v>6.28</v>
+        <v>-7.15</v>
       </c>
       <c r="F28" s="4">
-        <v>-7.15</v>
+        <v>24.61</v>
       </c>
       <c r="G28" s="4">
-        <v>24.61</v>
+        <v>-4.13</v>
       </c>
       <c r="H28" s="4">
-        <v>-4.13</v>
+        <v>6.22</v>
       </c>
       <c r="I28" s="4">
-        <v>6.22</v>
+        <v>-0.33</v>
       </c>
       <c r="J28" s="4">
-        <v>-0.33</v>
+        <v>18.34</v>
       </c>
       <c r="K28" s="4">
-        <v>18.34</v>
+        <v>13.68</v>
       </c>
       <c r="L28" s="4">
         <v>-55.21</v>
       </c>
       <c r="M28" s="4">
-        <v>13.68</v>
-      </c>
-      <c r="N28" s="4">
-        <v>-68.489999999999995</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="16.8">
+        <v>-68.489999999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="16.8">
       <c r="A29" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="4">
         <v>0</v>
       </c>
       <c r="C29" s="4">
-        <v>29.92</v>
+        <v>8.49</v>
       </c>
       <c r="D29" s="4">
-        <v>8.49</v>
+        <v>7.66</v>
       </c>
       <c r="E29" s="4">
-        <v>7.66</v>
+        <v>-0.47</v>
       </c>
       <c r="F29" s="4">
-        <v>-0.47</v>
+        <v>18.190000000000001</v>
       </c>
       <c r="G29" s="4">
-        <v>18.190000000000001</v>
+        <v>-2.91</v>
       </c>
       <c r="H29" s="4">
-        <v>-2.91</v>
+        <v>12.03</v>
       </c>
       <c r="I29" s="4">
-        <v>12.03</v>
+        <v>3.99</v>
       </c>
       <c r="J29" s="4">
-        <v>3.99</v>
+        <v>17.09</v>
       </c>
       <c r="K29" s="4">
-        <v>17.09</v>
+        <v>24.88</v>
       </c>
       <c r="L29" s="4">
         <v>-51.39</v>
       </c>
       <c r="M29" s="4">
-        <v>24.88</v>
-      </c>
-      <c r="N29" s="4">
-        <v>-68.489999999999995</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="16.8">
+        <v>-68.489999999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="16.8">
       <c r="A30" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" s="4">
         <v>0</v>
       </c>
       <c r="C30" s="4">
-        <v>26.73</v>
+        <v>-2.29</v>
       </c>
       <c r="D30" s="4">
-        <v>-2.29</v>
+        <v>-2.62</v>
       </c>
       <c r="E30" s="4">
-        <v>-2.62</v>
+        <v>-19.75</v>
       </c>
       <c r="F30" s="4">
-        <v>-19.75</v>
+        <v>-1.32</v>
       </c>
       <c r="G30" s="4">
-        <v>-1.32</v>
+        <v>-19.68</v>
       </c>
       <c r="H30" s="4">
-        <v>-19.68</v>
+        <v>-10.029999999999999</v>
       </c>
       <c r="I30" s="4">
-        <v>-10.029999999999999</v>
+        <v>-21.24</v>
       </c>
       <c r="J30" s="4">
-        <v>-21.24</v>
+        <v>3.24</v>
       </c>
       <c r="K30" s="4">
-        <v>3.24</v>
+        <v>11.84</v>
       </c>
       <c r="L30" s="4">
         <v>-55.83</v>
       </c>
       <c r="M30" s="4">
-        <v>11.84</v>
-      </c>
-      <c r="N30" s="4">
-        <v>-68.489999999999995</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="16.8">
+        <v>-68.489999999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="16.8">
       <c r="A31" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" s="4">
         <v>0</v>
       </c>
       <c r="C31" s="4">
-        <v>27.07</v>
+        <v>3.81</v>
       </c>
       <c r="D31" s="4">
-        <v>3.81</v>
+        <v>1.93</v>
       </c>
       <c r="E31" s="4">
-        <v>1.93</v>
+        <v>-12.39</v>
       </c>
       <c r="F31" s="4">
-        <v>-12.39</v>
+        <v>16.86</v>
       </c>
       <c r="G31" s="4">
-        <v>16.86</v>
+        <v>-9.9499999999999993</v>
       </c>
       <c r="H31" s="4">
-        <v>-9.9499999999999993</v>
+        <v>0.47</v>
       </c>
       <c r="I31" s="4">
-        <v>0.47</v>
+        <v>-15.29</v>
       </c>
       <c r="J31" s="4">
-        <v>-15.29</v>
+        <v>-1.37</v>
       </c>
       <c r="K31" s="4">
-        <v>-1.37</v>
+        <v>17.43</v>
       </c>
       <c r="L31" s="4">
         <v>-55.54</v>
       </c>
       <c r="M31" s="4">
-        <v>17.43</v>
-      </c>
-      <c r="N31" s="4">
-        <v>-68.489999999999995</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="16.8">
+        <v>-68.489999999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="16.8">
       <c r="A32" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" s="4">
         <v>0</v>
       </c>
       <c r="C32" s="4">
-        <v>25.8</v>
+        <v>2.83</v>
       </c>
       <c r="D32" s="4">
-        <v>2.83</v>
+        <v>1.95</v>
       </c>
       <c r="E32" s="4">
-        <v>1.95</v>
+        <v>-15.65</v>
       </c>
       <c r="F32" s="4">
-        <v>-15.65</v>
+        <v>15.35</v>
       </c>
       <c r="G32" s="4">
-        <v>15.35</v>
+        <v>-9.33</v>
       </c>
       <c r="H32" s="4">
-        <v>-9.33</v>
+        <v>1.64</v>
       </c>
       <c r="I32" s="4">
-        <v>1.64</v>
+        <v>-11.42</v>
       </c>
       <c r="J32" s="4">
-        <v>-11.42</v>
+        <v>1.45</v>
       </c>
       <c r="K32" s="4">
-        <v>1.45</v>
+        <v>18.91</v>
       </c>
       <c r="L32" s="4">
         <v>-52.98</v>
       </c>
       <c r="M32" s="4">
-        <v>18.91</v>
-      </c>
-      <c r="N32" s="4">
-        <v>-68.489999999999995</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="16.8">
+        <v>-68.489999999999995</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="16.8">
       <c r="A33" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33" s="4">
         <v>0</v>
       </c>
       <c r="C33" s="4">
-        <v>27.55</v>
+        <v>3.66</v>
       </c>
       <c r="D33" s="4">
-        <v>3.66</v>
+        <v>2.58</v>
       </c>
       <c r="E33" s="4">
-        <v>2.58</v>
+        <v>-12.52</v>
       </c>
       <c r="F33" s="4">
-        <v>-12.52</v>
+        <v>12.64</v>
       </c>
       <c r="G33" s="4">
-        <v>12.64</v>
+        <v>-7.99</v>
       </c>
       <c r="H33" s="4">
-        <v>-7.99</v>
+        <v>-0.23</v>
       </c>
       <c r="I33" s="4">
-        <v>-0.23</v>
+        <v>-13.75</v>
       </c>
       <c r="J33" s="4">
-        <v>-13.75</v>
+        <v>-3.51</v>
       </c>
       <c r="K33" s="4">
-        <v>-3.51</v>
+        <v>2.21</v>
       </c>
       <c r="L33" s="4">
         <v>-58.18</v>
       </c>
       <c r="M33" s="4">
-        <v>2.21</v>
-      </c>
-      <c r="N33" s="4">
-        <v>-68.489999999999995</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="16.8">
+        <v>-68.489999999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="16.8">
       <c r="A34" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34" s="4">
         <v>0</v>
       </c>
       <c r="C34" s="4">
-        <v>26.21</v>
+        <v>2.95</v>
       </c>
       <c r="D34" s="4">
-        <v>2.95</v>
+        <v>1.04</v>
       </c>
       <c r="E34" s="4">
-        <v>1.04</v>
+        <v>-13.02</v>
       </c>
       <c r="F34" s="4">
-        <v>-13.02</v>
+        <v>13.69</v>
       </c>
       <c r="G34" s="4">
-        <v>13.69</v>
+        <v>-10.82</v>
       </c>
       <c r="H34" s="4">
-        <v>-10.82</v>
+        <v>-1.44</v>
       </c>
       <c r="I34" s="4">
-        <v>-1.44</v>
+        <v>-13.32</v>
       </c>
       <c r="J34" s="4">
-        <v>-13.32</v>
+        <v>5.68</v>
       </c>
       <c r="K34" s="4">
-        <v>5.68</v>
+        <v>3.96</v>
       </c>
       <c r="L34" s="4">
         <v>-58.13</v>
       </c>
       <c r="M34" s="4">
-        <v>3.96</v>
-      </c>
-      <c r="N34" s="4">
-        <v>-68.489999999999995</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="16.8">
+        <v>-68.489999999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="16.8">
       <c r="A35" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35" s="4">
         <v>0</v>
       </c>
       <c r="C35" s="4">
-        <v>29.14</v>
+        <v>0.59</v>
       </c>
       <c r="D35" s="4">
-        <v>0.59</v>
+        <v>1.2</v>
       </c>
       <c r="E35" s="4">
-        <v>1.2</v>
+        <v>-15.56</v>
       </c>
       <c r="F35" s="4">
-        <v>-15.56</v>
+        <v>1.23</v>
       </c>
       <c r="G35" s="4">
-        <v>1.23</v>
+        <v>-11.12</v>
       </c>
       <c r="H35" s="4">
-        <v>-11.12</v>
+        <v>-3.77</v>
       </c>
       <c r="I35" s="4">
-        <v>-3.77</v>
+        <v>-17.29</v>
       </c>
       <c r="J35" s="4">
-        <v>-17.29</v>
+        <v>-1.68</v>
       </c>
       <c r="K35" s="4">
-        <v>-1.68</v>
+        <v>13.02</v>
       </c>
       <c r="L35" s="4">
         <v>-54.46</v>
       </c>
       <c r="M35" s="4">
-        <v>13.02</v>
-      </c>
-      <c r="N35" s="4">
-        <v>-68.489999999999995</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="16.8">
+        <v>-68.489999999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="16.8">
       <c r="A36" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36" s="4">
         <v>0</v>
       </c>
       <c r="C36" s="4">
-        <v>27.98</v>
+        <v>-0.82</v>
       </c>
       <c r="D36" s="4">
-        <v>-0.82</v>
+        <v>-2.67</v>
       </c>
       <c r="E36" s="4">
-        <v>-2.67</v>
+        <v>-18.7</v>
       </c>
       <c r="F36" s="4">
-        <v>-18.7</v>
+        <v>3.99</v>
       </c>
       <c r="G36" s="4">
-        <v>3.99</v>
+        <v>-16.239999999999998</v>
       </c>
       <c r="H36" s="4">
-        <v>-16.239999999999998</v>
+        <v>-5.03</v>
       </c>
       <c r="I36" s="4">
-        <v>-5.03</v>
+        <v>-18.63</v>
       </c>
       <c r="J36" s="4">
-        <v>-18.63</v>
+        <v>12.54</v>
       </c>
       <c r="K36" s="4">
-        <v>12.54</v>
+        <v>12.31</v>
       </c>
       <c r="L36" s="4">
         <v>-62.28</v>
       </c>
       <c r="M36" s="4">
-        <v>12.31</v>
-      </c>
-      <c r="N36" s="4">
-        <v>-68.489999999999995</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="16.8">
+        <v>-68.489999999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="16.8">
       <c r="A37" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" s="4">
         <v>0</v>
       </c>
       <c r="C37" s="4">
-        <v>27.92</v>
+        <v>6.88</v>
       </c>
       <c r="D37" s="4">
-        <v>6.88</v>
+        <v>6.65</v>
       </c>
       <c r="E37" s="4">
-        <v>6.65</v>
+        <v>-22.35</v>
       </c>
       <c r="F37" s="4">
-        <v>-22.35</v>
+        <v>7.88</v>
       </c>
       <c r="G37" s="4">
-        <v>7.88</v>
+        <v>-13.33</v>
       </c>
       <c r="H37" s="4">
-        <v>-13.33</v>
+        <v>-6.75</v>
       </c>
       <c r="I37" s="4">
-        <v>-6.75</v>
+        <v>-17.739999999999998</v>
       </c>
       <c r="J37" s="4">
-        <v>-17.739999999999998</v>
+        <v>-3.92</v>
       </c>
       <c r="K37" s="4">
-        <v>-3.92</v>
+        <v>3.86</v>
       </c>
       <c r="L37" s="4">
         <v>-63.34</v>
       </c>
       <c r="M37" s="4">
-        <v>3.86</v>
-      </c>
-      <c r="N37" s="4">
-        <v>-68.489999999999995</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="16.8">
+        <v>-68.489999999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="16.8">
       <c r="A38" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38" s="4">
         <v>0</v>
       </c>
       <c r="C38" s="4">
-        <v>28.08</v>
+        <v>4.34</v>
       </c>
       <c r="D38" s="4">
-        <v>4.34</v>
+        <v>3.65</v>
       </c>
       <c r="E38" s="4">
-        <v>3.65</v>
+        <v>-11.14</v>
       </c>
       <c r="F38" s="4">
-        <v>-11.14</v>
+        <v>7.71</v>
       </c>
       <c r="G38" s="4">
-        <v>7.71</v>
+        <v>-6.46</v>
       </c>
       <c r="H38" s="4">
-        <v>-6.46</v>
+        <v>1.58</v>
       </c>
       <c r="I38" s="4">
-        <v>1.58</v>
+        <v>-12.94</v>
       </c>
       <c r="J38" s="4">
-        <v>-12.94</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="K38" s="4">
-        <v>2.4300000000000002</v>
+        <v>19.86</v>
       </c>
       <c r="L38" s="4">
         <v>-60.32</v>
       </c>
       <c r="M38" s="4">
-        <v>19.86</v>
-      </c>
-      <c r="N38" s="4">
-        <v>-68.489999999999995</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="16.8">
+        <v>-68.489999999999995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="16.8">
       <c r="A39" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="4">
         <v>0</v>
       </c>
       <c r="C39" s="4">
-        <v>29.09</v>
+        <v>-1.62</v>
       </c>
       <c r="D39" s="4">
-        <v>-1.62</v>
+        <v>-2.35</v>
       </c>
       <c r="E39" s="4">
-        <v>-2.35</v>
+        <v>-17.07</v>
       </c>
       <c r="F39" s="4">
-        <v>-17.07</v>
+        <v>4.53</v>
       </c>
       <c r="G39" s="4">
-        <v>4.53</v>
+        <v>-14.09</v>
       </c>
       <c r="H39" s="4">
-        <v>-14.09</v>
+        <v>-6.96</v>
       </c>
       <c r="I39" s="4">
-        <v>-6.96</v>
+        <v>-22.34</v>
       </c>
       <c r="J39" s="4">
-        <v>-22.34</v>
+        <v>-1.88</v>
       </c>
       <c r="K39" s="4">
-        <v>-1.88</v>
+        <v>10.6</v>
       </c>
       <c r="L39" s="4">
         <v>-61.74</v>
       </c>
       <c r="M39" s="4">
-        <v>10.6</v>
-      </c>
-      <c r="N39" s="4">
-        <v>-68.489999999999995</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="16.8">
+        <v>-68.489999999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="16.8">
       <c r="A40" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40" s="4">
         <v>0</v>
       </c>
       <c r="C40" s="4">
-        <v>26.26</v>
+        <v>5.93</v>
       </c>
       <c r="D40" s="4">
-        <v>5.93</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="E40" s="4">
-        <v>4.4800000000000004</v>
+        <v>-13.86</v>
       </c>
       <c r="F40" s="4">
-        <v>-13.86</v>
+        <v>7.27</v>
       </c>
       <c r="G40" s="4">
-        <v>7.27</v>
+        <v>-9.5399999999999991</v>
       </c>
       <c r="H40" s="4">
-        <v>-9.5399999999999991</v>
+        <v>-3.37</v>
       </c>
       <c r="I40" s="4">
-        <v>-3.37</v>
+        <v>-15.54</v>
       </c>
       <c r="J40" s="4">
-        <v>-15.54</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="K40" s="4">
-        <v>4.5999999999999996</v>
+        <v>16.690000000000001</v>
       </c>
       <c r="L40" s="4">
         <v>-56.13</v>
       </c>
       <c r="M40" s="4">
-        <v>16.690000000000001</v>
-      </c>
-      <c r="N40" s="4">
-        <v>-68.489999999999995</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="16.8">
+        <v>-68.489999999999995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="16.8">
       <c r="A41" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41" s="4">
         <v>0</v>
       </c>
       <c r="C41" s="4">
-        <v>27.56</v>
+        <v>5.81</v>
       </c>
       <c r="D41" s="4">
-        <v>5.81</v>
+        <v>3.95</v>
       </c>
       <c r="E41" s="4">
-        <v>3.95</v>
+        <v>-11.37</v>
       </c>
       <c r="F41" s="4">
-        <v>-11.37</v>
+        <v>14.27</v>
       </c>
       <c r="G41" s="4">
-        <v>14.27</v>
+        <v>-7.09</v>
       </c>
       <c r="H41" s="4">
-        <v>-7.09</v>
+        <v>0.05</v>
       </c>
       <c r="I41" s="4">
-        <v>0.05</v>
+        <v>-12.55</v>
       </c>
       <c r="J41" s="4">
-        <v>-12.55</v>
+        <v>4.78</v>
       </c>
       <c r="K41" s="4">
-        <v>4.78</v>
+        <v>18.3</v>
       </c>
       <c r="L41" s="4">
         <v>-57.5</v>
       </c>
       <c r="M41" s="4">
-        <v>18.3</v>
-      </c>
-      <c r="N41" s="4">
-        <v>-68.489999999999995</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="16.8">
+        <v>-68.489999999999995</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="16.8">
       <c r="A42" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="4">
         <v>0</v>
       </c>
       <c r="C42" s="4">
-        <v>26.04</v>
+        <v>3.15</v>
       </c>
       <c r="D42" s="4">
-        <v>3.15</v>
+        <v>2.87</v>
       </c>
       <c r="E42" s="4">
-        <v>2.87</v>
+        <v>-18.09</v>
       </c>
       <c r="F42" s="4">
-        <v>-18.09</v>
+        <v>16</v>
       </c>
       <c r="G42" s="4">
-        <v>16</v>
+        <v>-8.01</v>
       </c>
       <c r="H42" s="4">
-        <v>-8.01</v>
+        <v>-3.2</v>
       </c>
       <c r="I42" s="4">
-        <v>-3.2</v>
+        <v>-14.91</v>
       </c>
       <c r="J42" s="4">
-        <v>-14.91</v>
+        <v>11.83</v>
       </c>
       <c r="K42" s="4">
-        <v>11.83</v>
+        <v>6.36</v>
       </c>
       <c r="L42" s="4">
         <v>-61.94</v>
       </c>
       <c r="M42" s="4">
-        <v>6.36</v>
-      </c>
-      <c r="N42" s="4">
-        <v>-68.489999999999995</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="16.8">
+        <v>-68.489999999999995</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="16.8">
       <c r="A43" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="4">
         <v>0</v>
       </c>
       <c r="C43" s="4">
-        <v>29.77</v>
+        <v>3.95</v>
       </c>
       <c r="D43" s="4">
-        <v>3.95</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="E43" s="4">
-        <v>4.0199999999999996</v>
+        <v>-10.73</v>
       </c>
       <c r="F43" s="4">
-        <v>-10.73</v>
+        <v>11.39</v>
       </c>
       <c r="G43" s="4">
-        <v>11.39</v>
+        <v>-6.68</v>
       </c>
       <c r="H43" s="4">
-        <v>-6.68</v>
+        <v>2.12</v>
       </c>
       <c r="I43" s="4">
-        <v>2.12</v>
+        <v>-12.1</v>
       </c>
       <c r="J43" s="4">
-        <v>-12.1</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="K43" s="4">
-        <v>8.8800000000000008</v>
+        <v>22.37</v>
       </c>
       <c r="L43" s="4">
         <v>-55.56</v>
       </c>
       <c r="M43" s="4">
-        <v>22.37</v>
-      </c>
-      <c r="N43" s="4">
         <v>-68.489999999999995</v>
       </c>
     </row>
